--- a/meta/8-7-1.xlsx
+++ b/meta/8-7-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18FD9E6-BF37-4AAB-8F7C-035E168F6F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -111,25 +110,6 @@
     <t>8.7. Принятие срочных и эффективных мер для того, чтобы искоренить принудительный труд, покончить с современным рабством и торговлей людьми и обеспечить запрет и ликвидацию наихудших форм детского труда, включая вербовку и использование детей-солдат, а к 2025 году покончить с детским трудом во всех его формах</t>
   </si>
   <si>
-    <t>8.7.1. Доля и число детей в возрасте от 5 до 17 лет, занятых детским трудом, в разбивке по полу и возрасту</t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР
-(Отдел статистики домашних хозяйств)</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Число детей, занятых детским трудом, соответствует числу детей, которые, как сообщается, находятся в детском труде в течение отчетного периода (обычно за неделю до обследования).</t>
   </si>
   <si>
@@ -175,17 +155,44 @@
   <si>
     <t xml:space="preserve">Национальная платформа отчётности ЦУР: https://sustainabledevelopment-kyrgyzstan.github.io </t>
   </si>
+  <si>
+    <t>Калымбетова Ы.И.</t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР
+(Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>8.7.1 Доля и число детей в возрасте от 5 до 17 лет, занятых детским трудом, в разбивке по полу и возрасту</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,32 +259,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{365C7643-2DE5-465E-A943-8D81E423226F}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -554,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4A2FFB-FB7D-4A92-ACDE-DEFF0962870F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +610,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -608,40 +623,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -655,7 +670,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -663,7 +678,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -671,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -693,7 +708,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -707,7 +722,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -715,7 +730,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +750,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -743,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +766,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
